--- a/AzentioAutomationFramework_FMS_VIJAY3/TestData/FMSTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_VIJAY3/TestData/FMSTestData.xlsx
@@ -17,14 +17,15 @@
     <sheet name="ApplicationForFinancialFacility" sheetId="11" r:id="rId8"/>
     <sheet name="TestExecution" sheetId="7" r:id="rId9"/>
     <sheet name="FMS_WIFAK_ApplicationTestData" sheetId="12" r:id="rId10"/>
-    <sheet name="FMS_Facilities_Management" sheetId="13" r:id="rId11"/>
+    <sheet name="FMS_DrawDownRequest_609" sheetId="14" r:id="rId11"/>
+    <sheet name="FMS_Facilities_Management" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="145">
   <si>
     <t>Password</t>
   </si>
@@ -454,6 +455,15 @@
   </si>
   <si>
     <t>DS01_535114_01</t>
+  </si>
+  <si>
+    <t>AT_DDR_075</t>
+  </si>
+  <si>
+    <t>AT_DDR_074</t>
+  </si>
+  <si>
+    <t>New Request</t>
   </si>
 </sst>
 </file>
@@ -1910,10 +1920,198 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" customWidth="1"/>
+    <col min="16" max="16" width="18" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" customWidth="1"/>
+    <col min="18" max="18" width="20.140625" customWidth="1"/>
+    <col min="19" max="19" width="17" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" customWidth="1"/>
+    <col min="21" max="21" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="30">
+      <c r="A1" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="N1" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="O1" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q1" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="R1" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="S1" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="T1" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="U1" s="54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="45">
+        <v>1038987</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="48">
+        <v>1124</v>
+      </c>
+      <c r="F2" s="48">
+        <v>369</v>
+      </c>
+      <c r="G2" s="48">
+        <v>320</v>
+      </c>
+      <c r="H2" s="48">
+        <v>2</v>
+      </c>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48">
+        <v>840</v>
+      </c>
+      <c r="K2" s="48">
+        <v>100000</v>
+      </c>
+      <c r="L2" s="49"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46">
+        <v>10</v>
+      </c>
+      <c r="U2" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="45">
+        <v>1038988</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="48">
+        <v>1125</v>
+      </c>
+      <c r="F3" s="48">
+        <v>221</v>
+      </c>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48">
+        <v>100000</v>
+      </c>
+      <c r="L3" s="49"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46">
+        <v>10</v>
+      </c>
+      <c r="U3" s="46">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection sqref="A1:AI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/AzentioAutomationFramework_FMS_VIJAY3/TestData/FMSTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_VIJAY3/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="8" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="146">
   <si>
     <t>Password</t>
   </si>
@@ -464,6 +464,9 @@
   </si>
   <si>
     <t>New Request</t>
+  </si>
+  <si>
+    <t>AT_DDR_073</t>
   </si>
 </sst>
 </file>
@@ -679,7 +682,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -795,6 +798,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1134,7 +1140,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1920,38 +1926,37 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" customWidth="1"/>
-    <col min="14" max="14" width="16.5703125" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" customWidth="1"/>
-    <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" customWidth="1"/>
-    <col min="19" max="19" width="17" customWidth="1"/>
-    <col min="20" max="20" width="18.28515625" customWidth="1"/>
-    <col min="21" max="21" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" customWidth="1"/>
+    <col min="15" max="15" width="18" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" customWidth="1"/>
+    <col min="17" max="17" width="20.140625" customWidth="1"/>
+    <col min="18" max="18" width="17" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="30">
+    <row r="1" spans="1:20" ht="30">
       <c r="A1" s="44" t="s">
         <v>17</v>
       </c>
@@ -1959,146 +1964,184 @@
         <v>77</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="D1" s="55" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E1" s="55" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F1" s="55" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G1" s="55" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H1" s="55" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="I1" s="55" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J1" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="K1" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="K1" s="56" t="s">
         <v>93</v>
       </c>
+      <c r="L1" s="55" t="s">
+        <v>98</v>
+      </c>
       <c r="M1" s="55" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N1" s="55" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O1" s="55" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P1" s="55" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q1" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="R1" s="55" t="s">
         <v>107</v>
       </c>
+      <c r="R1" s="54" t="s">
+        <v>108</v>
+      </c>
       <c r="S1" s="54" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="T1" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="U1" s="54" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:20">
       <c r="A2" s="45">
         <v>1038987</v>
       </c>
       <c r="B2" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47" t="s">
+      <c r="C2" s="47" t="s">
         <v>79</v>
       </c>
+      <c r="D2" s="48">
+        <v>727</v>
+      </c>
       <c r="E2" s="48">
-        <v>1124</v>
+        <v>369</v>
       </c>
       <c r="F2" s="48">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="G2" s="48">
-        <v>320</v>
-      </c>
-      <c r="H2" s="48">
         <v>2</v>
       </c>
-      <c r="I2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48">
+        <v>840</v>
+      </c>
       <c r="J2" s="48">
-        <v>840</v>
-      </c>
-      <c r="K2" s="48">
         <v>100000</v>
       </c>
-      <c r="L2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="48"/>
       <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
+      <c r="N2" s="50"/>
       <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
+      <c r="P2" s="47"/>
       <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46">
+        <v>10</v>
+      </c>
       <c r="T2" s="46">
-        <v>10</v>
-      </c>
-      <c r="U2" s="46">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:20">
       <c r="A3" s="45">
         <v>1038988</v>
       </c>
       <c r="B3" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47" t="s">
+      <c r="C3" s="47" t="s">
         <v>144</v>
       </c>
+      <c r="D3" s="48">
+        <v>727</v>
+      </c>
       <c r="E3" s="48">
-        <v>1125</v>
-      </c>
-      <c r="F3" s="48">
         <v>221</v>
       </c>
+      <c r="F3" s="48"/>
       <c r="G3" s="48"/>
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48">
+      <c r="J3" s="48">
         <v>100000</v>
       </c>
-      <c r="L3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="48"/>
       <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
+      <c r="N3" s="50"/>
       <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
+      <c r="P3" s="47"/>
       <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46">
+        <v>10</v>
+      </c>
       <c r="T3" s="46">
-        <v>10</v>
-      </c>
-      <c r="U3" s="46">
         <v>5</v>
       </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="45">
+        <v>827639</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="48">
+        <v>3003</v>
+      </c>
+      <c r="E4" s="48">
+        <v>369</v>
+      </c>
+      <c r="F4" s="48">
+        <v>320</v>
+      </c>
+      <c r="G4" s="48">
+        <v>2</v>
+      </c>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48">
+        <v>840</v>
+      </c>
+      <c r="J4" s="48">
+        <v>100000</v>
+      </c>
+      <c r="K4" s="49"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+    </row>
+    <row r="5" spans="1:20" ht="15">
+      <c r="A5" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2110,8 +2153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection sqref="A1:AI2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/AzentioAutomationFramework_FMS_VIJAY3/TestData/FMSTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_VIJAY3/TestData/FMSTestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="152">
   <si>
     <t>Password</t>
   </si>
@@ -467,6 +467,24 @@
   </si>
   <si>
     <t>AT_DDR_073</t>
+  </si>
+  <si>
+    <t>AT_DDR_031</t>
+  </si>
+  <si>
+    <t>Record Status</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Collateral</t>
+  </si>
+  <si>
+    <t>Application Level</t>
+  </si>
+  <si>
+    <t>AT_CM_011</t>
   </si>
 </sst>
 </file>
@@ -682,7 +700,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -799,8 +817,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1926,222 +1962,527 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" customWidth="1"/>
-    <col min="15" max="15" width="18" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" customWidth="1"/>
-    <col min="17" max="17" width="20.140625" customWidth="1"/>
-    <col min="18" max="18" width="17" customWidth="1"/>
-    <col min="19" max="19" width="18.28515625" customWidth="1"/>
-    <col min="20" max="20" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" style="59" customWidth="1"/>
+    <col min="2" max="4" width="17.5703125" style="59" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="59" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="59" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="59" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" style="59" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="59" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" style="59" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" style="59" customWidth="1"/>
+    <col min="12" max="12" width="17" style="59" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" style="59" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" style="59" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" style="59" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" style="59" customWidth="1"/>
+    <col min="17" max="17" width="18" style="59" customWidth="1"/>
+    <col min="18" max="18" width="17.42578125" style="59" customWidth="1"/>
+    <col min="19" max="19" width="20.140625" style="59" customWidth="1"/>
+    <col min="20" max="20" width="17" style="59" customWidth="1"/>
+    <col min="21" max="21" width="18.28515625" style="59" customWidth="1"/>
+    <col min="22" max="22" width="19.85546875" style="59" customWidth="1"/>
+    <col min="23" max="23" width="16.42578125" style="59" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="30">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:23" ht="30">
+      <c r="A1" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="F1" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="G1" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="H1" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="I1" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="J1" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="K1" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="L1" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="M1" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="N1" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="O1" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="N1" s="55" t="s">
+      <c r="P1" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="O1" s="55" t="s">
+      <c r="Q1" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="P1" s="55" t="s">
+      <c r="R1" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="Q1" s="55" t="s">
+      <c r="S1" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="R1" s="54" t="s">
+      <c r="T1" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="S1" s="54" t="s">
+      <c r="U1" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="T1" s="54" t="s">
+      <c r="V1" s="54" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="45">
+      <c r="W1" s="56" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="64">
         <v>1038987</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="48">
+      <c r="F2" s="63">
         <v>727</v>
       </c>
-      <c r="E2" s="48">
+      <c r="G2" s="63">
         <v>369</v>
       </c>
-      <c r="F2" s="48">
+      <c r="H2" s="63">
         <v>320</v>
       </c>
-      <c r="G2" s="48">
+      <c r="I2" s="63">
         <v>2</v>
       </c>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48">
+      <c r="J2" s="63"/>
+      <c r="K2" s="63">
         <v>840</v>
       </c>
-      <c r="J2" s="48">
+      <c r="L2" s="63">
         <v>100000</v>
       </c>
-      <c r="K2" s="49"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46">
+      <c r="M2" s="58"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60">
         <v>10</v>
       </c>
-      <c r="T2" s="46">
+      <c r="V2" s="60">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="45">
+      <c r="W2" s="58"/>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="64">
         <v>1038988</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="D3" s="48">
+      <c r="F3" s="63">
         <v>727</v>
       </c>
-      <c r="E3" s="48">
+      <c r="G3" s="63">
         <v>221</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48">
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63">
         <v>100000</v>
       </c>
-      <c r="K3" s="49"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46">
+      <c r="M3" s="58"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60">
         <v>10</v>
       </c>
-      <c r="T3" s="46">
+      <c r="V3" s="60">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="45">
+      <c r="W3" s="58"/>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="64">
         <v>827639</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="48">
+      <c r="F4" s="63">
         <v>3003</v>
       </c>
-      <c r="E4" s="48">
+      <c r="G4" s="63">
         <v>369</v>
       </c>
-      <c r="F4" s="48">
+      <c r="H4" s="63">
         <v>320</v>
       </c>
-      <c r="G4" s="48">
+      <c r="I4" s="63">
         <v>2</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48">
+      <c r="J4" s="63"/>
+      <c r="K4" s="63">
         <v>840</v>
       </c>
-      <c r="J4" s="48">
+      <c r="L4" s="63">
         <v>100000</v>
       </c>
-      <c r="K4" s="49"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-    </row>
-    <row r="5" spans="1:20" ht="15">
-      <c r="A5" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="58"/>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="64">
+        <v>396698</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
+      <c r="W5" s="58" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="64">
+        <v>834115</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="64">
+        <v>369</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="61"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="58"/>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="60"/>
+      <c r="W7" s="58"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="60"/>
+      <c r="V8" s="60"/>
+      <c r="W8" s="58"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="64"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="58"/>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="58"/>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="64"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="60"/>
+      <c r="V11" s="60"/>
+      <c r="W11" s="58"/>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="64"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="60"/>
+      <c r="W12" s="58"/>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="60"/>
+      <c r="W13" s="58"/>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="60"/>
+      <c r="V14" s="60"/>
+      <c r="W14" s="58"/>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="64"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="60"/>
+      <c r="U15" s="60"/>
+      <c r="V15" s="60"/>
+      <c r="W15" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AzentioAutomationFramework_FMS_VIJAY3/TestData/FMSTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_VIJAY3/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" firstSheet="2" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="8" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="FMS_WIFAK_ApplicationTestData" sheetId="12" r:id="rId10"/>
     <sheet name="FMS_DrawDownRequest_609" sheetId="14" r:id="rId11"/>
     <sheet name="FMS_Facilities_Management" sheetId="13" r:id="rId12"/>
+    <sheet name="FMS_CommitteeApproval_609" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="153">
   <si>
     <t>Password</t>
   </si>
@@ -485,6 +486,9 @@
   </si>
   <si>
     <t>AT_CM_011</t>
+  </si>
+  <si>
+    <t>AT_CA_006</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1180,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1964,8 +1968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="Q1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection sqref="A1:W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2494,9 +2498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2973,6 +2975,168 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" customWidth="1"/>
+    <col min="16" max="16" width="17" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15">
+      <c r="A1" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="N1" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="O1" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q1" s="55" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="64">
+        <v>718066</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="61">
+        <v>221</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="63">
+        <v>727</v>
+      </c>
+      <c r="F2" s="63">
+        <v>221</v>
+      </c>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63">
+        <v>100000</v>
+      </c>
+      <c r="L2" s="58"/>
+      <c r="M2" s="63">
+        <v>1</v>
+      </c>
+      <c r="N2" s="63">
+        <v>5</v>
+      </c>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="61"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="61"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="61"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>

--- a/AzentioAutomationFramework_FMS_VIJAY3/TestData/FMSTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_VIJAY3/TestData/FMSTestData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="166">
   <si>
     <t>Password</t>
   </si>
@@ -489,6 +489,45 @@
   </si>
   <si>
     <t>AT_CA_006</t>
+  </si>
+  <si>
+    <t>Approve</t>
+  </si>
+  <si>
+    <t>AT_CA_003</t>
+  </si>
+  <si>
+    <t>Approve level1 Decision</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>Approval Committee</t>
+  </si>
+  <si>
+    <t>Committee Recommendations</t>
+  </si>
+  <si>
+    <t>Approve level2 Decision</t>
+  </si>
+  <si>
+    <t>Approve level3  Decision</t>
+  </si>
+  <si>
+    <t>Approve level3 More Decision</t>
+  </si>
+  <si>
+    <t>AT_CA_004</t>
+  </si>
+  <si>
+    <t>Reject</t>
+  </si>
+  <si>
+    <t>AT_CA_005</t>
+  </si>
+  <si>
+    <t>AT_CA_007</t>
   </si>
 </sst>
 </file>
@@ -499,7 +538,7 @@
     <numFmt numFmtId="164" formatCode="&quot;Rs.&quot;#,##0.00;[Red]\-&quot;Rs.&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -580,6 +619,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -704,7 +750,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -841,6 +887,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1180,7 +1229,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2498,7 +2547,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2977,10 +3028,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3002,16 +3053,21 @@
     <col min="15" max="15" width="18.42578125" customWidth="1"/>
     <col min="16" max="16" width="17" customWidth="1"/>
     <col min="17" max="17" width="18.140625" customWidth="1"/>
+    <col min="18" max="18" width="26.7109375" customWidth="1"/>
+    <col min="19" max="19" width="24.7109375" customWidth="1"/>
+    <col min="20" max="20" width="23.28515625" customWidth="1"/>
+    <col min="21" max="21" width="29.28515625" customWidth="1"/>
+    <col min="22" max="22" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:22" ht="51.75" customHeight="1">
+      <c r="A1" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="65" t="s">
         <v>121</v>
       </c>
       <c r="D1" s="55" t="s">
@@ -3056,18 +3112,33 @@
       <c r="Q1" s="55" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="S1" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="T1" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="U1" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="V1" s="55" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="64">
         <v>718066</v>
       </c>
       <c r="B2" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="61">
+      <c r="C2" s="63">
         <v>221</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="63" t="s">
         <v>144</v>
       </c>
       <c r="E2" s="63">
@@ -3090,50 +3161,268 @@
       <c r="N2" s="63">
         <v>5</v>
       </c>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="61"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="64">
+        <v>802723</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="63">
+        <v>369</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="63">
+        <v>727</v>
+      </c>
+      <c r="F3" s="63">
+        <v>369</v>
+      </c>
+      <c r="G3" s="63">
+        <v>320</v>
+      </c>
+      <c r="H3" s="63">
+        <v>2</v>
+      </c>
       <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="63"/>
+      <c r="J3" s="63">
+        <v>840</v>
+      </c>
+      <c r="K3" s="63">
+        <v>100000</v>
+      </c>
+      <c r="L3" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="M3" s="63">
+        <v>1</v>
+      </c>
       <c r="N3" s="63"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="61"/>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
+      <c r="O3" s="60">
+        <v>1</v>
+      </c>
+      <c r="P3" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="S3" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="T3" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="U3" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="V3" s="63" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="64">
+        <v>814432</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="63">
+        <v>369</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="63">
+        <v>727</v>
+      </c>
+      <c r="F4" s="63">
+        <v>369</v>
+      </c>
+      <c r="G4" s="63">
+        <v>320</v>
+      </c>
+      <c r="H4" s="63">
+        <v>2</v>
+      </c>
       <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="63"/>
+      <c r="J4" s="63">
+        <v>840</v>
+      </c>
+      <c r="K4" s="63">
+        <v>100000</v>
+      </c>
+      <c r="L4" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="M4" s="63">
+        <v>1</v>
+      </c>
       <c r="N4" s="63"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="61"/>
+      <c r="O4" s="60">
+        <v>1</v>
+      </c>
+      <c r="P4" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="S4" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="T4" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="U4" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="V4" s="63" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="64">
+        <v>814432</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="63">
+        <v>369</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="63">
+        <v>727</v>
+      </c>
+      <c r="F5" s="63">
+        <v>369</v>
+      </c>
+      <c r="G5" s="63">
+        <v>320</v>
+      </c>
+      <c r="H5" s="63">
+        <v>2</v>
+      </c>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63">
+        <v>840</v>
+      </c>
+      <c r="K5" s="63">
+        <v>100000</v>
+      </c>
+      <c r="L5" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="M5" s="63">
+        <v>1</v>
+      </c>
+      <c r="N5" s="63"/>
+      <c r="O5" s="60">
+        <v>1</v>
+      </c>
+      <c r="P5" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="S5" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="T5" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="U5" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="V5" s="63" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="64">
+        <v>717911</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="63">
+        <v>369</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="63">
+        <v>727</v>
+      </c>
+      <c r="F6" s="63">
+        <v>369</v>
+      </c>
+      <c r="G6" s="63">
+        <v>320</v>
+      </c>
+      <c r="H6" s="63">
+        <v>2</v>
+      </c>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63">
+        <v>840</v>
+      </c>
+      <c r="K6" s="63">
+        <v>100000</v>
+      </c>
+      <c r="L6" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="M6" s="63">
+        <v>1</v>
+      </c>
+      <c r="N6" s="63"/>
+      <c r="O6" s="60">
+        <v>1</v>
+      </c>
+      <c r="P6" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="S6" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="T6" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="U6" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="V6" s="63" t="s">
+        <v>153</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/AzentioAutomationFramework_FMS_VIJAY3/TestData/FMSTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_VIJAY3/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" firstSheet="2" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="949" firstSheet="4" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="8" r:id="rId1"/>
@@ -19,14 +19,16 @@
     <sheet name="FMS_WIFAK_ApplicationTestData" sheetId="12" r:id="rId10"/>
     <sheet name="FMS_DrawDownRequest_609" sheetId="14" r:id="rId11"/>
     <sheet name="FMS_Facilities_Management" sheetId="13" r:id="rId12"/>
-    <sheet name="FMS_CommitteeApproval_609" sheetId="15" r:id="rId13"/>
+    <sheet name="FMS_AppModification_609" sheetId="16" r:id="rId13"/>
+    <sheet name="FMS_SubLimit_609" sheetId="17" r:id="rId14"/>
+    <sheet name="FMS_CommitteeApproval_609" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="179">
   <si>
     <t>Password</t>
   </si>
@@ -528,6 +530,45 @@
   </si>
   <si>
     <t>AT_CA_007</t>
+  </si>
+  <si>
+    <t>AT_FAM_004</t>
+  </si>
+  <si>
+    <t>AT_FAM_005</t>
+  </si>
+  <si>
+    <t>AT_FAM_008</t>
+  </si>
+  <si>
+    <t>Approve Level3</t>
+  </si>
+  <si>
+    <t>AL1 Forward TO</t>
+  </si>
+  <si>
+    <t>CR Recommendations</t>
+  </si>
+  <si>
+    <t>Recommended for approval</t>
+  </si>
+  <si>
+    <t>Modify Request</t>
+  </si>
+  <si>
+    <t>Export L/C</t>
+  </si>
+  <si>
+    <t>AT_SL_002</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Tenure</t>
   </si>
 </sst>
 </file>
@@ -750,7 +791,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -891,6 +932,7 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Excel Built-in Normal" xfId="7"/>
@@ -1229,7 +1271,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2018,7 +2060,7 @@
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView topLeftCell="Q1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection sqref="A1:W5"/>
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2547,8 +2589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3028,10 +3070,347 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:Q4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+    <col min="11" max="12" width="24.140625" customWidth="1"/>
+    <col min="13" max="13" width="25" customWidth="1"/>
+    <col min="14" max="14" width="23.42578125" customWidth="1"/>
+    <col min="15" max="15" width="30.7109375" customWidth="1"/>
+    <col min="16" max="16" width="25.5703125" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="51.75" customHeight="1">
+      <c r="A1" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="L1" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="M1" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="N1" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="O1" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="P1" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q1" s="55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="64">
+        <v>578246</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="63">
+        <v>362</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="63">
+        <v>727</v>
+      </c>
+      <c r="F2" s="63">
+        <v>362</v>
+      </c>
+      <c r="G2" s="63">
+        <v>100000</v>
+      </c>
+      <c r="H2" s="58"/>
+      <c r="I2" s="63">
+        <v>1</v>
+      </c>
+      <c r="J2" s="63">
+        <v>5</v>
+      </c>
+      <c r="K2" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="L2" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q2" s="63" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="64">
+        <v>577547</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="63">
+        <v>362</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="63">
+        <v>727</v>
+      </c>
+      <c r="F3" s="63">
+        <v>362</v>
+      </c>
+      <c r="G3" s="63">
+        <v>100000</v>
+      </c>
+      <c r="H3" s="58"/>
+      <c r="I3" s="63">
+        <v>1</v>
+      </c>
+      <c r="J3" s="63">
+        <v>5</v>
+      </c>
+      <c r="K3" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="L3" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="64">
+        <v>737733</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="63">
+        <v>362</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="63">
+        <v>727</v>
+      </c>
+      <c r="F4" s="63">
+        <v>362</v>
+      </c>
+      <c r="G4" s="63">
+        <v>100000</v>
+      </c>
+      <c r="H4" s="58"/>
+      <c r="I4" s="63">
+        <v>1</v>
+      </c>
+      <c r="J4" s="63">
+        <v>5</v>
+      </c>
+      <c r="K4" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="9" width="19.42578125" customWidth="1"/>
+    <col min="10" max="11" width="22.42578125" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="23.28515625" customWidth="1"/>
+    <col min="14" max="14" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="51.75" customHeight="1">
+      <c r="A1" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="L1" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="N1" s="55" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="64">
+        <v>930364</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="63">
+        <v>19</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="63">
+        <v>727</v>
+      </c>
+      <c r="F2" s="63">
+        <v>19</v>
+      </c>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63">
+        <v>100000</v>
+      </c>
+      <c r="I2" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="J2" s="63">
+        <v>0</v>
+      </c>
+      <c r="K2" s="63">
+        <v>0</v>
+      </c>
+      <c r="L2" s="63">
+        <v>5</v>
+      </c>
+      <c r="M2" s="63">
+        <v>1</v>
+      </c>
+      <c r="N2" s="63" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3420,6 +3799,9 @@
         <v>153</v>
       </c>
     </row>
+    <row r="9" spans="1:22">
+      <c r="H9" s="66"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/AzentioAutomationFramework_FMS_VIJAY3/TestData/FMSTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_VIJAY3/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="949" firstSheet="4" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="949" firstSheet="4" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="180">
   <si>
     <t>Password</t>
   </si>
@@ -569,6 +569,9 @@
   </si>
   <si>
     <t>Tenure</t>
+  </si>
+  <si>
+    <t>RevolvingOneOff</t>
   </si>
 </sst>
 </file>
@@ -2589,8 +2592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AJ3" sqref="AJ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3070,33 +3073,33 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" customWidth="1"/>
-    <col min="11" max="12" width="24.140625" customWidth="1"/>
-    <col min="13" max="13" width="25" customWidth="1"/>
-    <col min="14" max="14" width="23.42578125" customWidth="1"/>
-    <col min="15" max="15" width="30.7109375" customWidth="1"/>
-    <col min="16" max="16" width="25.5703125" customWidth="1"/>
-    <col min="17" max="17" width="17.5703125" customWidth="1"/>
+    <col min="3" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="12" max="13" width="24.140625" customWidth="1"/>
+    <col min="14" max="14" width="25" customWidth="1"/>
+    <col min="15" max="15" width="23.42578125" customWidth="1"/>
+    <col min="16" max="16" width="30.7109375" customWidth="1"/>
+    <col min="17" max="17" width="25.5703125" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="51.75" customHeight="1">
+    <row r="1" spans="1:18" ht="51.75" customHeight="1">
       <c r="A1" s="65" t="s">
         <v>17</v>
       </c>
@@ -3106,50 +3109,53 @@
       <c r="C1" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="F1" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="G1" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="H1" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="I1" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="J1" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="K1" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="L1" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="M1" s="55" t="s">
         <v>170</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="N1" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="N1" s="55" t="s">
+      <c r="O1" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="O1" s="55" t="s">
+      <c r="P1" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="P1" s="55" t="s">
+      <c r="Q1" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="Q1" s="55" t="s">
+      <c r="R1" s="55" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" s="64">
         <v>578246</v>
       </c>
@@ -3159,44 +3165,45 @@
       <c r="C2" s="63">
         <v>362</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="63"/>
+      <c r="E2" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="E2" s="63">
+      <c r="F2" s="63">
         <v>727</v>
       </c>
-      <c r="F2" s="63">
+      <c r="G2" s="63">
         <v>362</v>
       </c>
-      <c r="G2" s="63">
+      <c r="H2" s="63">
         <v>100000</v>
       </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="63">
-        <v>1</v>
-      </c>
+      <c r="I2" s="58"/>
       <c r="J2" s="63">
+        <v>1</v>
+      </c>
+      <c r="K2" s="63">
         <v>5</v>
       </c>
-      <c r="K2" s="63" t="s">
+      <c r="L2" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="L2" s="63" t="s">
+      <c r="M2" s="63" t="s">
         <v>169</v>
       </c>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63" t="s">
+      <c r="N2" s="63"/>
+      <c r="O2" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63" t="s">
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63" t="s">
         <v>172</v>
       </c>
-      <c r="Q2" s="63" t="s">
+      <c r="R2" s="63" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" s="64">
         <v>577547</v>
       </c>
@@ -3206,42 +3213,43 @@
       <c r="C3" s="63">
         <v>362</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="63"/>
+      <c r="E3" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="E3" s="63">
+      <c r="F3" s="63">
         <v>727</v>
       </c>
-      <c r="F3" s="63">
+      <c r="G3" s="63">
         <v>362</v>
       </c>
-      <c r="G3" s="63">
+      <c r="H3" s="63">
         <v>100000</v>
       </c>
-      <c r="H3" s="58"/>
-      <c r="I3" s="63">
-        <v>1</v>
-      </c>
+      <c r="I3" s="58"/>
       <c r="J3" s="63">
+        <v>1</v>
+      </c>
+      <c r="K3" s="63">
         <v>5</v>
       </c>
-      <c r="K3" s="63" t="s">
+      <c r="L3" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="L3" s="63" t="s">
+      <c r="M3" s="63" t="s">
         <v>169</v>
       </c>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63" t="s">
+      <c r="N3" s="63"/>
+      <c r="O3" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="O3" s="63"/>
       <c r="P3" s="63"/>
-      <c r="Q3" s="63" t="s">
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4" s="64">
         <v>737733</v>
       </c>
@@ -3249,40 +3257,53 @@
         <v>168</v>
       </c>
       <c r="C4" s="63">
-        <v>362</v>
+        <v>42</v>
       </c>
       <c r="D4" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="E4" s="63">
+      <c r="F4" s="63">
         <v>727</v>
       </c>
-      <c r="F4" s="63">
-        <v>362</v>
-      </c>
       <c r="G4" s="63">
+        <v>42</v>
+      </c>
+      <c r="H4" s="63">
         <v>100000</v>
       </c>
-      <c r="H4" s="58"/>
-      <c r="I4" s="63">
-        <v>1</v>
-      </c>
-      <c r="J4" s="63">
-        <v>5</v>
-      </c>
-      <c r="K4" s="63" t="s">
-        <v>156</v>
-      </c>
+      <c r="I4" s="58"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
       <c r="L4" s="63"/>
       <c r="M4" s="63"/>
-      <c r="N4" s="63" t="s">
-        <v>153</v>
-      </c>
+      <c r="N4" s="63"/>
       <c r="O4" s="63"/>
       <c r="P4" s="63"/>
-      <c r="Q4" s="63" t="s">
-        <v>173</v>
-      </c>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3294,8 +3315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/AzentioAutomationFramework_FMS_VIJAY3/TestData/FMSTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_VIJAY3/TestData/FMSTestData.xlsx
@@ -19,16 +19,17 @@
     <sheet name="FMS_WIFAK_ApplicationTestData" sheetId="12" r:id="rId10"/>
     <sheet name="FMS_DrawDownRequest_609" sheetId="14" r:id="rId11"/>
     <sheet name="FMS_Facilities_Management" sheetId="13" r:id="rId12"/>
-    <sheet name="FMS_AppModification_609" sheetId="16" r:id="rId13"/>
-    <sheet name="FMS_SubLimit_609" sheetId="17" r:id="rId14"/>
-    <sheet name="FMS_CommitteeApproval_609" sheetId="15" r:id="rId15"/>
+    <sheet name="FMS_AccountingEntries_609" sheetId="18" r:id="rId13"/>
+    <sheet name="FMS_AppModification_609" sheetId="16" r:id="rId14"/>
+    <sheet name="FMS_SubLimit_609" sheetId="17" r:id="rId15"/>
+    <sheet name="FMS_CommitteeApproval_609" sheetId="15" r:id="rId16"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="187">
   <si>
     <t>Password</t>
   </si>
@@ -572,6 +573,27 @@
   </si>
   <si>
     <t>RevolvingOneOff</t>
+  </si>
+  <si>
+    <t>AT_AE_003</t>
+  </si>
+  <si>
+    <t>GL Code</t>
+  </si>
+  <si>
+    <t>AL1 Decision</t>
+  </si>
+  <si>
+    <t>AL1 Forward To  Decision</t>
+  </si>
+  <si>
+    <t>AL3 Decision</t>
+  </si>
+  <si>
+    <t>Approve Level 3</t>
+  </si>
+  <si>
+    <t>12/07/2023</t>
   </si>
 </sst>
 </file>
@@ -794,7 +816,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -936,6 +958,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Excel Built-in Normal" xfId="7"/>
@@ -2592,8 +2632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AJ3" sqref="AJ3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3073,9 +3113,163 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="19" customWidth="1"/>
+    <col min="16" max="17" width="22.85546875" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" customWidth="1"/>
+    <col min="19" max="19" width="27.140625" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="59" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A1" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="N1" s="55" t="s">
+        <v>181</v>
+      </c>
+      <c r="O1" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="S1" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="T1" s="55" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="57" customFormat="1" ht="44.25" customHeight="1">
+      <c r="A2" s="67">
+        <v>814025</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="68">
+        <v>369</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="70">
+        <v>727</v>
+      </c>
+      <c r="F2" s="70">
+        <v>369</v>
+      </c>
+      <c r="G2" s="70">
+        <v>320</v>
+      </c>
+      <c r="H2" s="70">
+        <v>2</v>
+      </c>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70">
+        <v>840</v>
+      </c>
+      <c r="K2" s="70">
+        <v>10000</v>
+      </c>
+      <c r="L2" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="M2" s="70">
+        <v>1</v>
+      </c>
+      <c r="N2" s="72">
+        <v>411001</v>
+      </c>
+      <c r="O2" s="72">
+        <v>1</v>
+      </c>
+      <c r="P2" s="72">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="S2" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="T2" s="72" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -3311,7 +3505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -3426,7 +3620,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V9"/>
   <sheetViews>

--- a/AzentioAutomationFramework_FMS_VIJAY3/TestData/FMSTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_VIJAY3/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="949" firstSheet="4" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="949" firstSheet="9" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="8" r:id="rId1"/>
@@ -23,13 +23,15 @@
     <sheet name="FMS_AppModification_609" sheetId="16" r:id="rId14"/>
     <sheet name="FMS_SubLimit_609" sheetId="17" r:id="rId15"/>
     <sheet name="FMS_CommitteeApproval_609" sheetId="15" r:id="rId16"/>
+    <sheet name="FMS_CreditReview_609" sheetId="20" r:id="rId17"/>
+    <sheet name="FMS_RequestForFinancing_609" sheetId="21" r:id="rId18"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="192">
   <si>
     <t>Password</t>
   </si>
@@ -362,21 +364,12 @@
     <t>More Comments</t>
   </si>
   <si>
-    <t>DS01_326257</t>
-  </si>
-  <si>
-    <t>DS01_402669</t>
-  </si>
-  <si>
     <t>Revolving/One-Off</t>
   </si>
   <si>
     <t>Revolving</t>
   </si>
   <si>
-    <t>DS01_834958</t>
-  </si>
-  <si>
     <t>MarketedBY</t>
   </si>
   <si>
@@ -594,6 +587,30 @@
   </si>
   <si>
     <t>12/07/2023</t>
+  </si>
+  <si>
+    <t>AT_CR_002</t>
+  </si>
+  <si>
+    <t>AT_CR_001</t>
+  </si>
+  <si>
+    <t>Purpose Of Financing</t>
+  </si>
+  <si>
+    <t>AT_RF_144</t>
+  </si>
+  <si>
+    <t>AT_RF_192</t>
+  </si>
+  <si>
+    <t>AT_RF_195</t>
+  </si>
+  <si>
+    <t>AT_RF_196</t>
+  </si>
+  <si>
+    <t>AT_RF_145</t>
   </si>
 </sst>
 </file>
@@ -1314,7 +1331,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1526,10 +1543,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB14"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1569,7 +1586,7 @@
         <v>77</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D1" s="55" t="s">
         <v>88</v>
@@ -1590,10 +1607,10 @@
         <v>91</v>
       </c>
       <c r="J1" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="55" t="s">
         <v>111</v>
-      </c>
-      <c r="K1" s="55" t="s">
-        <v>114</v>
       </c>
       <c r="L1" s="55" t="s">
         <v>92</v>
@@ -1649,25 +1666,19 @@
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="45">
-        <v>326257</v>
+        <v>127780</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47" t="s">
-        <v>79</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C2" s="48">
+        <v>221</v>
+      </c>
+      <c r="D2" s="47"/>
       <c r="E2" s="47"/>
-      <c r="F2" s="48">
-        <v>727</v>
-      </c>
-      <c r="G2" s="48">
-        <v>369</v>
-      </c>
-      <c r="H2" s="48">
-        <v>320</v>
-      </c>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="48"/>
       <c r="K2" s="48"/>
@@ -1691,172 +1702,134 @@
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="45">
-        <v>402669</v>
+        <v>402668</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="48">
-        <v>727</v>
-      </c>
-      <c r="G3" s="46">
-        <v>369</v>
-      </c>
-      <c r="H3" s="46">
-        <v>840</v>
-      </c>
-      <c r="I3" s="46">
-        <v>2</v>
-      </c>
-      <c r="J3" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="46"/>
+        <v>117</v>
+      </c>
+      <c r="C3" s="48">
+        <v>221</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="48"/>
       <c r="O3" s="46"/>
       <c r="P3" s="46"/>
       <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
       <c r="AB3" s="46"/>
     </row>
     <row r="4" spans="1:28">
-      <c r="A4" s="45">
-        <v>834958</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>113</v>
-      </c>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="46"/>
-      <c r="D4" s="47" t="s">
-        <v>79</v>
-      </c>
+      <c r="D4" s="47"/>
       <c r="E4" s="47"/>
-      <c r="F4" s="48">
-        <v>727</v>
-      </c>
-      <c r="G4" s="46">
-        <v>369</v>
-      </c>
-      <c r="H4" s="48">
-        <v>320</v>
-      </c>
-      <c r="I4" s="46">
-        <v>2</v>
-      </c>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
       <c r="J4" s="48"/>
-      <c r="K4" s="48">
-        <v>180456</v>
-      </c>
+      <c r="K4" s="48"/>
       <c r="L4" s="48"/>
       <c r="M4" s="49"/>
       <c r="N4" s="48"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
       <c r="R4" s="48"/>
       <c r="S4" s="48"/>
       <c r="T4" s="48"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="50"/>
-      <c r="W4" s="50"/>
-      <c r="X4" s="50"/>
-      <c r="Y4" s="50"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
       <c r="AB4" s="46"/>
     </row>
     <row r="5" spans="1:28">
-      <c r="A5" s="45">
-        <v>127780</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="48">
-        <v>221</v>
-      </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="48"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="46"/>
       <c r="O5" s="46"/>
       <c r="P5" s="46"/>
       <c r="Q5" s="46"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="50"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="47"/>
-      <c r="AB5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="48"/>
     </row>
     <row r="6" spans="1:28">
-      <c r="A6" s="45">
-        <v>402668</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="48">
-        <v>221</v>
-      </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="48"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="46"/>
-      <c r="H6" s="48"/>
+      <c r="H6" s="46"/>
       <c r="I6" s="46"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="48"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="46"/>
       <c r="O6" s="46"/>
       <c r="P6" s="46"/>
       <c r="Q6" s="46"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="50"/>
-      <c r="X6" s="50"/>
-      <c r="Y6" s="50"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="46"/>
       <c r="AB6" s="46"/>
     </row>
     <row r="7" spans="1:28">
-      <c r="A7" s="45"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="47"/>
       <c r="E7" s="47"/>
       <c r="F7" s="48"/>
@@ -1868,27 +1841,27 @@
       <c r="L7" s="48"/>
       <c r="M7" s="49"/>
       <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
       <c r="R7" s="48"/>
       <c r="S7" s="48"/>
       <c r="T7" s="48"/>
       <c r="U7" s="46"/>
       <c r="V7" s="46"/>
       <c r="W7" s="46"/>
-      <c r="X7" s="46"/>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="46"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="47"/>
       <c r="AA7" s="46"/>
       <c r="AB7" s="46"/>
     </row>
     <row r="8" spans="1:28">
-      <c r="A8" s="45"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="45"/>
       <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
       <c r="F8" s="46"/>
       <c r="G8" s="46"/>
       <c r="H8" s="46"/>
@@ -1896,7 +1869,7 @@
       <c r="J8" s="46"/>
       <c r="K8" s="46"/>
       <c r="L8" s="46"/>
-      <c r="M8" s="51"/>
+      <c r="M8" s="49"/>
       <c r="N8" s="46"/>
       <c r="O8" s="46"/>
       <c r="P8" s="46"/>
@@ -1907,46 +1880,46 @@
       <c r="U8" s="46"/>
       <c r="V8" s="46"/>
       <c r="W8" s="46"/>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="46"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="47"/>
       <c r="AA8" s="46"/>
-      <c r="AB8" s="48"/>
+      <c r="AB8" s="46"/>
     </row>
     <row r="9" spans="1:28">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="46"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="48"/>
       <c r="O9" s="46"/>
       <c r="P9" s="46"/>
       <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="46"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
       <c r="U9" s="46"/>
       <c r="V9" s="46"/>
       <c r="W9" s="46"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="46"/>
-      <c r="Z9" s="46"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="47"/>
       <c r="AA9" s="46"/>
       <c r="AB9" s="46"/>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="52"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="48"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="47"/>
       <c r="E10" s="47"/>
       <c r="F10" s="48"/>
@@ -1957,13 +1930,13 @@
       <c r="K10" s="48"/>
       <c r="L10" s="48"/>
       <c r="M10" s="49"/>
-      <c r="N10" s="48"/>
+      <c r="N10" s="46"/>
       <c r="O10" s="46"/>
       <c r="P10" s="46"/>
       <c r="Q10" s="46"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
       <c r="U10" s="46"/>
       <c r="V10" s="46"/>
       <c r="W10" s="46"/>
@@ -1974,24 +1947,24 @@
       <c r="AB10" s="46"/>
     </row>
     <row r="11" spans="1:28">
-      <c r="A11" s="52"/>
-      <c r="B11" s="45"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="46"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
       <c r="M11" s="49"/>
       <c r="N11" s="46"/>
       <c r="O11" s="46"/>
       <c r="P11" s="46"/>
       <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
+      <c r="R11" s="48"/>
       <c r="S11" s="46"/>
       <c r="T11" s="46"/>
       <c r="U11" s="46"/>
@@ -2003,96 +1976,6 @@
       <c r="AA11" s="46"/>
       <c r="AB11" s="46"/>
     </row>
-    <row r="12" spans="1:28">
-      <c r="A12" s="52"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="46"/>
-      <c r="W12" s="46"/>
-      <c r="X12" s="50"/>
-      <c r="Y12" s="50"/>
-      <c r="Z12" s="47"/>
-      <c r="AA12" s="46"/>
-      <c r="AB12" s="46"/>
-    </row>
-    <row r="13" spans="1:28">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="46"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="46"/>
-      <c r="AB13" s="46"/>
-    </row>
-    <row r="14" spans="1:28">
-      <c r="A14" s="53"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="46"/>
-      <c r="X14" s="50"/>
-      <c r="Y14" s="50"/>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="46"/>
-      <c r="AB14" s="46"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2102,8 +1985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2139,10 +2022,10 @@
         <v>77</v>
       </c>
       <c r="C1" s="54" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D1" s="54" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E1" s="55" t="s">
         <v>88</v>
@@ -2160,10 +2043,10 @@
         <v>91</v>
       </c>
       <c r="J1" s="55" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K1" s="55" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L1" s="55" t="s">
         <v>92</v>
@@ -2199,7 +2082,7 @@
         <v>96</v>
       </c>
       <c r="W1" s="56" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -2207,7 +2090,7 @@
         <v>1038987</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
@@ -2254,12 +2137,12 @@
         <v>1038988</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C3" s="64"/>
       <c r="D3" s="64"/>
       <c r="E3" s="61" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F3" s="63">
         <v>727</v>
@@ -2295,7 +2178,7 @@
         <v>827639</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C4" s="64"/>
       <c r="D4" s="64"/>
@@ -2338,7 +2221,7 @@
         <v>396698</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C5" s="64"/>
       <c r="D5" s="64"/>
@@ -2361,7 +2244,7 @@
       <c r="U5" s="60"/>
       <c r="V5" s="60"/>
       <c r="W5" s="58" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -2369,13 +2252,13 @@
         <v>834115</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C6" s="64">
         <v>369</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E6" s="61"/>
       <c r="F6" s="63"/>
@@ -2633,7 +2516,7 @@
   <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="G1" activeCellId="3" sqref="J1:J1048576 K1:K1048576 H1:H1048576 G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2677,7 +2560,7 @@
         <v>77</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D1" s="55" t="s">
         <v>88</v>
@@ -2695,10 +2578,10 @@
         <v>91</v>
       </c>
       <c r="I1" s="55" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J1" s="55" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K1" s="55" t="s">
         <v>92</v>
@@ -2707,10 +2590,10 @@
         <v>93</v>
       </c>
       <c r="M1" s="56" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="N1" s="56" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="O1" s="55" t="s">
         <v>98</v>
@@ -2746,34 +2629,34 @@
         <v>108</v>
       </c>
       <c r="Z1" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA1" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB1" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC1" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="AA1" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB1" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC1" s="54" t="s">
-        <v>126</v>
-      </c>
       <c r="AD1" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE1" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF1" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG1" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="AE1" s="54" t="s">
+      <c r="AH1" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="AF1" s="54" t="s">
+      <c r="AI1" s="54" t="s">
         <v>135</v>
-      </c>
-      <c r="AG1" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH1" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI1" s="54" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:35">
@@ -2781,7 +2664,7 @@
         <v>570687</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="47" t="s">
@@ -2800,7 +2683,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="48" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J2" s="48">
         <v>840</v>
@@ -2809,7 +2692,7 @@
         <v>10000</v>
       </c>
       <c r="L2" s="49" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M2" s="49"/>
       <c r="N2" s="49"/>
@@ -2840,7 +2723,7 @@
         <v>586385</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="47"/>
@@ -2866,16 +2749,16 @@
       <c r="X3" s="47"/>
       <c r="Y3" s="46"/>
       <c r="Z3" s="47" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AA3" s="47" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AB3" s="47" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AC3" s="47" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AD3" s="47"/>
       <c r="AE3" s="47"/>
@@ -2889,7 +2772,7 @@
         <v>535114</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C4" s="46">
         <v>369</v>
@@ -2910,7 +2793,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="48" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J4" s="48">
         <v>840</v>
@@ -2919,7 +2802,7 @@
         <v>10000</v>
       </c>
       <c r="L4" s="49" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M4" s="49"/>
       <c r="N4" s="49"/>
@@ -2948,7 +2831,7 @@
         <v>1</v>
       </c>
       <c r="AE4" s="47" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AF4" s="46">
         <v>3000</v>
@@ -2957,7 +2840,7 @@
         <v>2</v>
       </c>
       <c r="AH4" s="47" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AI4" s="46">
         <v>4000</v>
@@ -2968,7 +2851,7 @@
         <v>535171</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C5" s="46">
         <v>369</v>
@@ -2989,7 +2872,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="48" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J5" s="48">
         <v>840</v>
@@ -2998,7 +2881,7 @@
         <v>10000</v>
       </c>
       <c r="L5" s="49" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M5" s="49"/>
       <c r="N5" s="49"/>
@@ -3028,10 +2911,10 @@
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="45" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C6" s="46">
         <v>369</v>
@@ -3052,7 +2935,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="48" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J6" s="48">
         <v>840</v>
@@ -3061,7 +2944,7 @@
         <v>10000</v>
       </c>
       <c r="L6" s="49" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M6" s="49"/>
       <c r="N6" s="49"/>
@@ -3090,7 +2973,7 @@
         <v>1</v>
       </c>
       <c r="AE6" s="47" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AF6" s="46">
         <v>3000</v>
@@ -3099,7 +2982,7 @@
         <v>2</v>
       </c>
       <c r="AH6" s="47" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AI6" s="46">
         <v>4000</v>
@@ -3113,10 +2996,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3136,13 +3019,13 @@
     <col min="13" max="13" width="17.140625" customWidth="1"/>
     <col min="14" max="14" width="20.7109375" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="17" width="22.85546875" customWidth="1"/>
-    <col min="18" max="18" width="18.140625" customWidth="1"/>
-    <col min="19" max="19" width="27.140625" customWidth="1"/>
-    <col min="20" max="20" width="16.42578125" customWidth="1"/>
+    <col min="16" max="16" width="22.85546875" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" customWidth="1"/>
+    <col min="18" max="18" width="27.140625" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="59" customFormat="1" ht="73.5" customHeight="1">
+    <row r="1" spans="1:19" s="59" customFormat="1" ht="73.5" customHeight="1">
       <c r="A1" s="54" t="s">
         <v>17</v>
       </c>
@@ -3150,7 +3033,7 @@
         <v>77</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D1" s="55" t="s">
         <v>88</v>
@@ -3168,10 +3051,10 @@
         <v>91</v>
       </c>
       <c r="I1" s="55" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J1" s="55" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K1" s="55" t="s">
         <v>92</v>
@@ -3183,7 +3066,7 @@
         <v>98</v>
       </c>
       <c r="N1" s="55" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O1" s="55" t="s">
         <v>104</v>
@@ -3191,23 +3074,22 @@
       <c r="P1" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="Q1" s="55"/>
+      <c r="Q1" s="55" t="s">
+        <v>179</v>
+      </c>
       <c r="R1" s="55" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="S1" s="55" t="s">
-        <v>183</v>
-      </c>
-      <c r="T1" s="55" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="57" customFormat="1" ht="44.25" customHeight="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="57" customFormat="1" ht="44.25" customHeight="1">
       <c r="A2" s="67">
         <v>814025</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C2" s="68">
         <v>369</v>
@@ -3235,7 +3117,7 @@
         <v>10000</v>
       </c>
       <c r="L2" s="71" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M2" s="70">
         <v>1</v>
@@ -3249,15 +3131,14 @@
       <c r="P2" s="72">
         <v>1</v>
       </c>
-      <c r="Q2" s="72"/>
+      <c r="Q2" s="69" t="s">
+        <v>153</v>
+      </c>
       <c r="R2" s="69" t="s">
-        <v>156</v>
-      </c>
-      <c r="S2" s="69" t="s">
-        <v>185</v>
-      </c>
-      <c r="T2" s="72" t="s">
-        <v>153</v>
+        <v>182</v>
+      </c>
+      <c r="S2" s="72" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3270,7 +3151,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3301,10 +3182,10 @@
         <v>77</v>
       </c>
       <c r="C1" s="65" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D1" s="65" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E1" s="55" t="s">
         <v>88</v>
@@ -3328,22 +3209,22 @@
         <v>99</v>
       </c>
       <c r="L1" s="55" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M1" s="55" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N1" s="55" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O1" s="55" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="P1" s="55" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="Q1" s="55" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="R1" s="55" t="s">
         <v>88</v>
@@ -3354,14 +3235,14 @@
         <v>578246</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C2" s="63">
         <v>362</v>
       </c>
       <c r="D2" s="63"/>
       <c r="E2" s="63" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F2" s="63">
         <v>727</v>
@@ -3380,21 +3261,21 @@
         <v>5</v>
       </c>
       <c r="L2" s="63" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M2" s="63" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="N2" s="63"/>
       <c r="O2" s="63" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P2" s="63"/>
       <c r="Q2" s="63" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="R2" s="63" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -3402,14 +3283,14 @@
         <v>577547</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C3" s="63">
         <v>362</v>
       </c>
       <c r="D3" s="63"/>
       <c r="E3" s="63" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F3" s="63">
         <v>727</v>
@@ -3428,19 +3309,19 @@
         <v>5</v>
       </c>
       <c r="L3" s="63" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M3" s="63" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="N3" s="63"/>
       <c r="O3" s="63" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P3" s="63"/>
       <c r="Q3" s="63"/>
       <c r="R3" s="63" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -3448,16 +3329,16 @@
         <v>737733</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C4" s="63">
         <v>42</v>
       </c>
       <c r="D4" s="63" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E4" s="63" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F4" s="63">
         <v>727</v>
@@ -3509,9 +3390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3537,7 +3416,7 @@
         <v>77</v>
       </c>
       <c r="C1" s="65" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D1" s="55" t="s">
         <v>88</v>
@@ -3549,28 +3428,28 @@
         <v>81</v>
       </c>
       <c r="G1" s="55" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H1" s="55" t="s">
         <v>92</v>
       </c>
       <c r="I1" s="55" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J1" s="55" t="s">
         <v>98</v>
       </c>
       <c r="K1" s="55" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L1" s="55" t="s">
         <v>99</v>
       </c>
       <c r="M1" s="55" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N1" s="55" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -3578,13 +3457,13 @@
         <v>930364</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C2" s="63">
         <v>19</v>
       </c>
       <c r="D2" s="63" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E2" s="63">
         <v>727</v>
@@ -3597,7 +3476,7 @@
         <v>100000</v>
       </c>
       <c r="I2" s="63" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J2" s="63">
         <v>0</v>
@@ -3612,7 +3491,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="63" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3625,7 +3504,7 @@
   <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B4" activeCellId="1" sqref="A1:XFD1 A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3662,7 +3541,7 @@
         <v>77</v>
       </c>
       <c r="C1" s="65" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D1" s="55" t="s">
         <v>88</v>
@@ -3680,10 +3559,10 @@
         <v>91</v>
       </c>
       <c r="I1" s="55" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J1" s="55" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K1" s="55" t="s">
         <v>92</v>
@@ -3707,19 +3586,19 @@
         <v>106</v>
       </c>
       <c r="R1" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="S1" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="T1" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="U1" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="V1" s="55" t="s">
         <v>155</v>
-      </c>
-      <c r="S1" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="T1" s="55" t="s">
-        <v>160</v>
-      </c>
-      <c r="U1" s="55" t="s">
-        <v>161</v>
-      </c>
-      <c r="V1" s="55" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -3727,13 +3606,13 @@
         <v>718066</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C2" s="63">
         <v>221</v>
       </c>
       <c r="D2" s="63" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E2" s="63">
         <v>727</v>
@@ -3758,7 +3637,7 @@
       <c r="O2" s="60"/>
       <c r="P2" s="60"/>
       <c r="Q2" s="63" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="R2" s="63"/>
       <c r="S2" s="63"/>
@@ -3771,7 +3650,7 @@
         <v>802723</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C3" s="63">
         <v>369</v>
@@ -3799,7 +3678,7 @@
         <v>100000</v>
       </c>
       <c r="L3" s="49" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M3" s="63">
         <v>1</v>
@@ -3813,19 +3692,19 @@
       </c>
       <c r="Q3" s="63"/>
       <c r="R3" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="S3" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="T3" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="S3" s="63" t="s">
-        <v>153</v>
-      </c>
-      <c r="T3" s="63" t="s">
-        <v>156</v>
-      </c>
       <c r="U3" s="63" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="V3" s="63" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -3833,7 +3712,7 @@
         <v>814432</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C4" s="63">
         <v>369</v>
@@ -3861,7 +3740,7 @@
         <v>100000</v>
       </c>
       <c r="L4" s="49" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M4" s="63">
         <v>1</v>
@@ -3875,19 +3754,19 @@
       </c>
       <c r="Q4" s="63"/>
       <c r="R4" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="S4" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="T4" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="S4" s="63" t="s">
-        <v>153</v>
-      </c>
-      <c r="T4" s="63" t="s">
-        <v>156</v>
-      </c>
       <c r="U4" s="63" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="V4" s="63" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -3895,7 +3774,7 @@
         <v>814432</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C5" s="63">
         <v>369</v>
@@ -3923,7 +3802,7 @@
         <v>100000</v>
       </c>
       <c r="L5" s="49" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M5" s="63">
         <v>1</v>
@@ -3937,19 +3816,19 @@
       </c>
       <c r="Q5" s="63"/>
       <c r="R5" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="S5" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="T5" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="S5" s="63" t="s">
-        <v>153</v>
-      </c>
-      <c r="T5" s="63" t="s">
-        <v>156</v>
-      </c>
       <c r="U5" s="63" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="V5" s="63" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -3957,7 +3836,7 @@
         <v>717911</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C6" s="63">
         <v>369</v>
@@ -3985,7 +3864,7 @@
         <v>100000</v>
       </c>
       <c r="L6" s="49" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M6" s="63">
         <v>1</v>
@@ -3999,19 +3878,19 @@
       </c>
       <c r="Q6" s="63"/>
       <c r="R6" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="S6" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="T6" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="S6" s="63" t="s">
-        <v>153</v>
-      </c>
-      <c r="T6" s="63" t="s">
-        <v>156</v>
-      </c>
       <c r="U6" s="63" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="V6" s="63" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -4020,6 +3899,483 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" customWidth="1"/>
+    <col min="11" max="11" width="31.42578125" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="59" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A1" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="K1" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="L1" s="55" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="57" customFormat="1" ht="44.25" customHeight="1">
+      <c r="A2" s="67">
+        <v>922760</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="68">
+        <v>19</v>
+      </c>
+      <c r="D2" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="70">
+        <v>727</v>
+      </c>
+      <c r="F2" s="70">
+        <v>19</v>
+      </c>
+      <c r="G2" s="70">
+        <v>10000</v>
+      </c>
+      <c r="H2" s="70">
+        <v>1</v>
+      </c>
+      <c r="I2" s="72">
+        <v>292134</v>
+      </c>
+      <c r="J2" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="K2" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="L2" s="72" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="57" customFormat="1" ht="44.25" customHeight="1">
+      <c r="A3" s="67">
+        <v>956827</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="68">
+        <v>19</v>
+      </c>
+      <c r="D3" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="70">
+        <v>727</v>
+      </c>
+      <c r="F3" s="70">
+        <v>19</v>
+      </c>
+      <c r="G3" s="70">
+        <v>10000</v>
+      </c>
+      <c r="H3" s="70">
+        <v>1</v>
+      </c>
+      <c r="I3" s="72">
+        <v>292134</v>
+      </c>
+      <c r="J3" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="K3" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="L3" s="72" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" customWidth="1"/>
+    <col min="14" max="14" width="28.85546875" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" customWidth="1"/>
+    <col min="16" max="16" width="20.140625" customWidth="1"/>
+    <col min="17" max="18" width="22.28515625" customWidth="1"/>
+    <col min="19" max="19" width="26.42578125" customWidth="1"/>
+    <col min="20" max="20" width="21.7109375" customWidth="1"/>
+    <col min="21" max="21" width="29.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="51.75" customHeight="1">
+      <c r="A1" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="N1" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="O1" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q1" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="R1" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="S1" s="55" t="s">
+        <v>181</v>
+      </c>
+      <c r="T1" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="U1" s="55" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="64">
+        <v>862727</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="63">
+        <v>369</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="63">
+        <v>727</v>
+      </c>
+      <c r="F2" s="63">
+        <v>369</v>
+      </c>
+      <c r="G2" s="63">
+        <v>320</v>
+      </c>
+      <c r="H2" s="63">
+        <v>2</v>
+      </c>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63">
+        <v>840</v>
+      </c>
+      <c r="K2" s="63">
+        <v>100000</v>
+      </c>
+      <c r="L2" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="M2" s="63">
+        <v>1</v>
+      </c>
+      <c r="N2" s="63">
+        <v>1</v>
+      </c>
+      <c r="O2" s="60">
+        <v>1</v>
+      </c>
+      <c r="P2" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="R2" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="S2" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="T2" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="U2" s="63" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="57" customFormat="1">
+      <c r="A3" s="67">
+        <v>326257</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="69">
+        <v>727</v>
+      </c>
+      <c r="F3" s="70">
+        <v>369</v>
+      </c>
+      <c r="G3" s="70">
+        <v>320</v>
+      </c>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="72"/>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="64">
+        <v>402669</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="48"/>
+      <c r="D4" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="63">
+        <v>727</v>
+      </c>
+      <c r="F4" s="60">
+        <v>369</v>
+      </c>
+      <c r="G4" s="60">
+        <v>840</v>
+      </c>
+      <c r="H4" s="60">
+        <v>2</v>
+      </c>
+      <c r="I4" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="J4" s="62"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="64">
+        <v>834958</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="63">
+        <v>727</v>
+      </c>
+      <c r="F5" s="60">
+        <v>369</v>
+      </c>
+      <c r="G5" s="63">
+        <v>320</v>
+      </c>
+      <c r="H5" s="60">
+        <v>2</v>
+      </c>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63">
+        <v>180456</v>
+      </c>
+      <c r="K5" s="48"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="46"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="64">
+        <v>863738</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="63"/>
+      <c r="D6" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="63">
+        <v>727</v>
+      </c>
+      <c r="F6" s="63">
+        <v>369</v>
+      </c>
+      <c r="G6" s="63">
+        <v>320</v>
+      </c>
+      <c r="H6" s="63">
+        <v>2</v>
+      </c>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63">
+        <v>586</v>
+      </c>
+      <c r="K6" s="63">
+        <v>100000</v>
+      </c>
+      <c r="L6" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="M6" s="63">
+        <v>1</v>
+      </c>
+      <c r="N6" s="63"/>
+      <c r="O6" s="60">
+        <v>1</v>
+      </c>
+      <c r="P6" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="R6" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="S6" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/AzentioAutomationFramework_FMS_VIJAY3/TestData/FMSTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_VIJAY3/TestData/FMSTestData.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="194">
   <si>
     <t>Password</t>
   </si>
@@ -611,6 +611,12 @@
   </si>
   <si>
     <t>AT_RF_145</t>
+  </si>
+  <si>
+    <t>5288</t>
+  </si>
+  <si>
+    <t>5289</t>
   </si>
 </sst>
 </file>
@@ -1331,7 +1337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1347,14 +1353,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="18.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.7109375" style="32" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="28.85546875" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="19.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="11.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="27.7109375" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="32" width="17.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="3" width="15.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="9" max="16384" style="3" width="28.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1551,31 +1557,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" customWidth="1"/>
-    <col min="9" max="11" width="15.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
-    <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="18.140625" customWidth="1"/>
-    <col min="15" max="15" width="17" customWidth="1"/>
-    <col min="16" max="16" width="26.140625" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" customWidth="1"/>
-    <col min="20" max="20" width="11.85546875" customWidth="1"/>
-    <col min="21" max="21" width="21.5703125" customWidth="1"/>
-    <col min="22" max="22" width="19.7109375" customWidth="1"/>
-    <col min="23" max="23" width="8.140625" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" customWidth="1"/>
-    <col min="25" max="25" width="15.5703125" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" customWidth="1"/>
-    <col min="27" max="27" width="19.28515625" customWidth="1"/>
-    <col min="28" max="28" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="9" max="11" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="57" customFormat="1" ht="30">
@@ -1991,27 +1997,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="59" customWidth="1"/>
-    <col min="2" max="4" width="17.5703125" style="59" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="59" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="59" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="59" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" style="59" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="59" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" style="59" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" style="59" customWidth="1"/>
-    <col min="12" max="12" width="17" style="59" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" style="59" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" style="59" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" style="59" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" style="59" customWidth="1"/>
-    <col min="17" max="17" width="18" style="59" customWidth="1"/>
-    <col min="18" max="18" width="17.42578125" style="59" customWidth="1"/>
-    <col min="19" max="19" width="20.140625" style="59" customWidth="1"/>
-    <col min="20" max="20" width="17" style="59" customWidth="1"/>
-    <col min="21" max="21" width="18.28515625" style="59" customWidth="1"/>
-    <col min="22" max="22" width="19.85546875" style="59" customWidth="1"/>
-    <col min="23" max="23" width="16.42578125" style="59" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="59" width="17.140625" collapsed="true"/>
+    <col min="2" max="4" customWidth="true" style="59" width="17.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="59" width="18.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="59" width="16.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="59" width="16.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="59" width="22.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="59" width="20.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="59" width="19.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="59" width="18.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="59" width="17.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="59" width="16.42578125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="59" width="15.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="59" width="16.5703125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="59" width="18.7109375" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="59" width="18.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="59" width="17.42578125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="59" width="20.140625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="59" width="17.0" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="59" width="18.28515625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="59" width="19.85546875" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="59" width="16.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="30">
@@ -2521,35 +2527,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="10" width="20.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" customWidth="1"/>
-    <col min="13" max="13" width="21.140625" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" customWidth="1"/>
-    <col min="18" max="18" width="23.28515625" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" customWidth="1"/>
-    <col min="20" max="20" width="13" customWidth="1"/>
-    <col min="21" max="21" width="16" customWidth="1"/>
-    <col min="22" max="22" width="17.140625" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" customWidth="1"/>
-    <col min="24" max="24" width="17.85546875" customWidth="1"/>
-    <col min="25" max="27" width="15.28515625" customWidth="1"/>
-    <col min="28" max="28" width="18.42578125" customWidth="1"/>
-    <col min="29" max="29" width="18.7109375" customWidth="1"/>
-    <col min="30" max="30" width="11.7109375" customWidth="1"/>
-    <col min="31" max="31" width="15" customWidth="1"/>
-    <col min="32" max="32" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="25" max="27" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="30">
@@ -3004,25 +3010,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" customWidth="1"/>
-    <col min="13" max="13" width="17.140625" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" customWidth="1"/>
-    <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="16" width="22.85546875" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" customWidth="1"/>
-    <col min="18" max="18" width="27.140625" customWidth="1"/>
-    <col min="19" max="19" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="16.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="59" customFormat="1" ht="73.5" customHeight="1">
@@ -3156,22 +3162,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
-    <col min="12" max="13" width="24.140625" customWidth="1"/>
-    <col min="14" max="14" width="25" customWidth="1"/>
-    <col min="15" max="15" width="23.42578125" customWidth="1"/>
-    <col min="16" max="16" width="30.7109375" customWidth="1"/>
-    <col min="17" max="17" width="25.5703125" customWidth="1"/>
-    <col min="18" max="18" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="12" max="13" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="17.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="51.75" customHeight="1">
@@ -3394,18 +3400,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="9" width="19.42578125" customWidth="1"/>
-    <col min="10" max="11" width="22.42578125" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="23.28515625" customWidth="1"/>
-    <col min="14" max="14" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="25.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="51.75" customHeight="1">
@@ -3509,28 +3515,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" customWidth="1"/>
-    <col min="16" max="16" width="17" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" customWidth="1"/>
-    <col min="18" max="18" width="26.7109375" customWidth="1"/>
-    <col min="19" max="19" width="24.7109375" customWidth="1"/>
-    <col min="20" max="20" width="23.28515625" customWidth="1"/>
-    <col min="21" max="21" width="29.28515625" customWidth="1"/>
-    <col min="22" max="22" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="51.75" customHeight="1">
@@ -3912,18 +3918,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" customWidth="1"/>
-    <col min="11" max="11" width="31.42578125" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="20.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="59" customFormat="1" ht="73.5" customHeight="1">
@@ -4056,26 +4062,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" customWidth="1"/>
-    <col min="14" max="14" width="28.85546875" customWidth="1"/>
-    <col min="15" max="15" width="20.5703125" customWidth="1"/>
-    <col min="16" max="16" width="20.140625" customWidth="1"/>
-    <col min="17" max="18" width="22.28515625" customWidth="1"/>
-    <col min="19" max="19" width="26.42578125" customWidth="1"/>
-    <col min="20" max="20" width="21.7109375" customWidth="1"/>
-    <col min="21" max="21" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="17" max="18" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="29.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="51.75" customHeight="1">
@@ -4342,7 +4348,9 @@
       <c r="H6" s="63">
         <v>2</v>
       </c>
-      <c r="I6" s="63"/>
+      <c r="I6" s="63" t="s">
+        <v>193</v>
+      </c>
       <c r="J6" s="63">
         <v>586</v>
       </c>
@@ -4389,10 +4397,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="123" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="38.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="123" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="18.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="30.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="38.42578125" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="123.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4458,12 +4466,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.28515625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="22.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="21.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="27.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="34.42578125" collapsed="true"/>
+    <col min="6" max="16384" style="2" width="9.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4703,12 +4711,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.28515625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="22.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="21.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="21.42578125" collapsed="true"/>
+    <col min="6" max="16384" style="2" width="9.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4948,12 +4956,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.28515625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="9.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="11.5703125" collapsed="true"/>
+    <col min="6" max="16384" style="2" width="9.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5193,12 +5201,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.28515625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="13.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="9.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="11.5703125" collapsed="true"/>
+    <col min="6" max="16384" style="2" width="9.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5438,10 +5446,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.28515625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="11.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="9.42578125" collapsed="true"/>
+    <col min="4" max="16384" style="2" width="9.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5493,14 +5501,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="18.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15">
@@ -5571,15 +5579,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="40" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="13.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.5703125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="26.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.28515625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27.140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="26.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="25.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="40" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="9.7109375" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" style="4" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="14.5703125" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="4" width="26.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="28.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="4" width="27.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="4" width="26.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="4" width="25.85546875" collapsed="true"/>
+    <col min="11" max="16384" style="4" width="40.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1">

--- a/AzentioAutomationFramework_FMS_VIJAY3/TestData/FMSTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_VIJAY3/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="949" firstSheet="9" activeTab="17"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="949" firstSheet="10" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="8" r:id="rId1"/>
@@ -25,13 +25,14 @@
     <sheet name="FMS_CommitteeApproval_609" sheetId="15" r:id="rId16"/>
     <sheet name="FMS_CreditReview_609" sheetId="20" r:id="rId17"/>
     <sheet name="FMS_RequestForFinancing_609" sheetId="21" r:id="rId18"/>
+    <sheet name="ITFC_RequestForFinancing_609" sheetId="22" r:id="rId19"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="204">
   <si>
     <t>Password</t>
   </si>
@@ -613,10 +614,40 @@
     <t>AT_RF_145</t>
   </si>
   <si>
-    <t>5288</t>
-  </si>
-  <si>
     <t>5289</t>
+  </si>
+  <si>
+    <t>TestCase</t>
+  </si>
+  <si>
+    <t>AT_RF_172</t>
+  </si>
+  <si>
+    <t>AT_RF_172_D1</t>
+  </si>
+  <si>
+    <t>Reason For Submission</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>AT_RF_174</t>
+  </si>
+  <si>
+    <t>AT_RF_174_D1</t>
+  </si>
+  <si>
+    <t>16/01/2021</t>
+  </si>
+  <si>
+    <t>Total Limit</t>
+  </si>
+  <si>
+    <t>User ID</t>
   </si>
 </sst>
 </file>
@@ -627,7 +658,7 @@
     <numFmt numFmtId="164" formatCode="&quot;Rs.&quot;#,##0.00;[Red]\-&quot;Rs.&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -716,6 +747,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="12">
@@ -839,7 +876,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -999,6 +1036,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Excel Built-in Normal" xfId="7"/>
@@ -1337,7 +1375,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1353,14 +1391,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="19.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="11.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="27.7109375" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="32" width="17.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="3" width="15.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="18.140625" collapsed="true"/>
-    <col min="9" max="16384" style="3" width="28.85546875" collapsed="true"/>
+    <col min="1" max="1" width="19.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="18.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.7109375" style="32" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="28.85546875" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1557,31 +1595,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="9" max="11" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="11" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="8.140625" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="15.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="57" customFormat="1" ht="30">
@@ -1997,27 +2035,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="59" width="17.140625" collapsed="true"/>
-    <col min="2" max="4" customWidth="true" style="59" width="17.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="59" width="18.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="59" width="16.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="59" width="16.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="59" width="22.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="59" width="20.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="59" width="19.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="59" width="18.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="59" width="17.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="59" width="16.42578125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="59" width="15.85546875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="59" width="16.5703125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="59" width="18.7109375" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="59" width="18.0" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="59" width="17.42578125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="59" width="20.140625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="59" width="17.0" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="59" width="18.28515625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="59" width="19.85546875" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="59" width="16.42578125" collapsed="true"/>
+    <col min="1" max="1" width="17.140625" style="59" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="17.5703125" style="59" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.85546875" style="59" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.5703125" style="59" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.85546875" style="59" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="22.140625" style="59" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.140625" style="59" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.28515625" style="59" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.85546875" style="59" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17" style="59" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.42578125" style="59" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.85546875" style="59" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.5703125" style="59" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="18.7109375" style="59" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="18" style="59" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.42578125" style="59" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="20.140625" style="59" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="17" style="59" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="18.28515625" style="59" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="19.85546875" style="59" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="16.42578125" style="59" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="30">
@@ -2527,35 +2565,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="25" max="27" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="16" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="25" max="27" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="15" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="17.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="30">
@@ -3010,25 +3048,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="19" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="22.85546875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.140625" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="16.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="59" customFormat="1" ht="73.5" customHeight="1">
@@ -3162,22 +3200,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="12" max="13" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="25" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="23.42578125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="25.5703125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="51.75" customHeight="1">
@@ -3400,18 +3438,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="8" max="9" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="10" max="11" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="25.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="51.75" customHeight="1">
@@ -3515,28 +3553,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="17" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="29.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="51.75" customHeight="1">
@@ -3918,18 +3956,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="31.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="31.42578125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="20.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="59" customFormat="1" ht="73.5" customHeight="1">
@@ -4056,32 +4094,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="17" max="18" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="1" max="1" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="28.85546875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="17" max="18" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="29.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="51.75" customHeight="1">
@@ -4349,7 +4387,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J6" s="63">
         <v>586</v>
@@ -4384,6 +4422,122 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1"/>
+    <col min="8" max="9" width="36.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="51.75" customHeight="1">
+      <c r="A1" s="65" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="64">
+        <v>862727</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="69">
+        <v>1069</v>
+      </c>
+      <c r="F2" s="63">
+        <v>1112</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="64">
+        <v>326297</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="69">
+        <v>1069</v>
+      </c>
+      <c r="F3" s="63">
+        <v>1112</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="H3" s="63">
+        <v>100</v>
+      </c>
+      <c r="I3" s="63">
+        <v>120524</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="66"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4397,10 +4551,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="123" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="18.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="30.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="38.42578125" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="123.0" collapsed="true"/>
+    <col min="1" max="1" width="18.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="38.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="123" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4466,12 +4620,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="22.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="21.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="27.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="34.42578125" collapsed="true"/>
-    <col min="6" max="16384" style="2" width="9.28515625" collapsed="true"/>
+    <col min="1" max="1" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.28515625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4711,12 +4865,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="22.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="21.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="18.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="21.42578125" collapsed="true"/>
-    <col min="6" max="16384" style="2" width="9.28515625" collapsed="true"/>
+    <col min="1" max="1" width="22.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.28515625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4950,18 +5104,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="9.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="11.5703125" collapsed="true"/>
-    <col min="6" max="16384" style="2" width="9.28515625" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.28515625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5201,12 +5355,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="13.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="9.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="11.5703125" collapsed="true"/>
-    <col min="6" max="16384" style="2" width="9.28515625" collapsed="true"/>
+    <col min="1" max="1" width="13.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.28515625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5446,10 +5600,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="11.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="10.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="9.42578125" collapsed="true"/>
-    <col min="4" max="16384" style="2" width="9.28515625" collapsed="true"/>
+    <col min="1" max="1" width="11.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.28515625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5501,14 +5655,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15">
@@ -5579,15 +5733,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="40" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="9.7109375" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" style="4" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="14.5703125" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" style="4" width="26.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="28.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="4" width="27.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="4" width="26.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="4" width="25.85546875" collapsed="true"/>
-    <col min="11" max="16384" style="4" width="40.0" collapsed="true"/>
+    <col min="1" max="1" width="9.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="13.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.5703125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="26.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.28515625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="27.140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="26.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="25.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="40" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1">
